--- a/FinalProject/datasets/School enrollment/School enrollment, primary, filter.xlsx
+++ b/FinalProject/datasets/School enrollment/School enrollment, primary, filter.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelialiu/Documents/Northeastern /ARTG5330/GitHub Liu742/Liu742.github.io/FinalProject/datasets/School enrollment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C8E80-07D7-2847-B841-0570713C55E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBADD296-9CAC-C741-A0CA-D1148B1D5145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="760" windowWidth="31360" windowHeight="17440" xr2:uid="{25AFAC2A-C0BA-B542-B6D9-5E4F0BB229F4}"/>
+    <workbookView xWindow="680" yWindow="1520" windowWidth="14640" windowHeight="15900" xr2:uid="{25AFAC2A-C0BA-B542-B6D9-5E4F0BB229F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -471,12 +471,12 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="36" customHeight="1">
